--- a/python-in-excel-custom-frequency-bins-demo.xlsx
+++ b/python-in-excel-custom-frequency-bins-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DA6820-7D86-4F42-9EBB-5C4C6A52421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3720022-E20A-42BE-9C2C-85DF82FC7AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{9D131DF7-C6AA-451E-8406-4505524D1496}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -93,11 +93,12 @@
   <pythonScripts>
     <pythonScript>
       <code>housing_df = xl(%P2%, headers=True)
-bins = [0, 50_000, 100_000, 150_000, float('inf')]
-labels = ['Budget (≤50 k)', 'Midrange (50–100 k)', 'Premium (100–150 k)', 'Luxury (&gt;150 k)']
+# Create custom intervals
+bins = [0, 40000, 75000, 125000, float('inf')]
+labels = ['Budget (≤40k)', 'Affordable (40–75k)', 'Midrange (75–125k)', 'High-end (&gt;125k)']
 housing_df['PriceBin'] = pd.cut(housing_df['price'], bins=bins, labels=labels)
 # Get counts per bin
-price_counts = housing_df['PriceBin'].value_counts().sort_values()
+price_counts = housing_df['PriceBin'].value_counts().sort_index()
 price_counts</code>
     </pythonScript>
     <pythonScript>
@@ -112,7 +113,7 @@
     q=4,
     labels=['Q1','Q2','Q3','Q4']
 )
-housing_df['LotsizeQuartile'].value_counts().sort_values()</code>
+housing_df['LotsizeQuartile'].value_counts().sort_index()</code>
     </pythonScript>
     <pythonScript>
       <code>pd.crosstab(housing_df['PriceBin'], housing_df['LotsizeQuartile'])</code>
@@ -223,22 +224,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1843087</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>1138670</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225755</xdr:colOff>
+      <xdr:colOff>385327</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>70302</xdr:rowOff>
+      <xdr:rowOff>237600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434E7EB9-E27F-9783-7134-504EC8A4746D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B07B19-9534-C83B-5B10-473BDDD12083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,8 +260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1843087" y="2424112"/>
-          <a:ext cx="6355093" cy="4142240"/>
+          <a:off x="1138670" y="1645948"/>
+          <a:ext cx="7226010" cy="4479834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21482,7 +21483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0753F1E9-2105-424D-871A-4033505AC5DC}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
@@ -21500,34 +21501,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A2" t="str">
-        <v>Luxury (&gt;150 k)</v>
+        <v>Budget (≤40k)</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A3" t="str">
-        <v>Premium (100–150 k)</v>
+        <v>Affordable (40–75k)</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A4" t="str">
-        <v>Budget (≤50 k)</v>
+        <v>Midrange (75–125k)</v>
       </c>
       <c r="B4">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A5" t="str">
-        <v>Midrange (50–100 k)</v>
+        <v>High-end (&gt;125k)</v>
       </c>
       <c r="B5">
-        <v>324</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.7">
@@ -21547,34 +21548,34 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A25" t="str">
-        <v>Q2</v>
+        <v>Q1</v>
       </c>
       <c r="B25">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A26" t="str">
-        <v>Q3</v>
+        <v>Q2</v>
       </c>
       <c r="B26">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A27" t="str">
-        <v>Q4</v>
+        <v>Q3</v>
       </c>
       <c r="B27">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A28" t="str">
-        <v>Q1</v>
+        <v>Q4</v>
       </c>
       <c r="B28">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.7">
@@ -21614,70 +21615,70 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A32" t="str">
-        <v>Budget (≤50 k)</v>
+        <v>Budget (≤40k)</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A33" t="str">
-        <v>Midrange (50–100 k)</v>
+        <v>Affordable (40–75k)</v>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E33">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A34" t="str">
-        <v>Premium (100–150 k)</v>
+        <v>Midrange (75–125k)</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A35" t="str">
-        <v>Luxury (&gt;150 k)</v>
+        <v>High-end (&gt;125k)</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/python-in-excel-custom-frequency-bins-demo.xlsx
+++ b/python-in-excel-custom-frequency-bins-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3720022-E20A-42BE-9C2C-85DF82FC7AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC33A4-A892-4EDE-B7EF-629FC1144E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{9D131DF7-C6AA-451E-8406-4505524D1496}"/>
   </bookViews>
@@ -224,15 +224,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1138670</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>173903</xdr:rowOff>
+      <xdr:rowOff>209622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>385327</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234876</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>237600</xdr:rowOff>
+      <xdr:rowOff>273319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,8 +260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1138670" y="1645948"/>
-          <a:ext cx="7226010" cy="4479834"/>
+          <a:off x="0" y="1697903"/>
+          <a:ext cx="7205986" cy="4528541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21483,7 +21483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0753F1E9-2105-424D-871A-4033505AC5DC}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
